--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2558,10 +2570,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2605,28 +2617,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2651,28 +2663,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3280,10 +3292,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3327,28 +3339,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3373,28 +3385,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3569,10 +3581,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3616,28 +3628,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3662,28 +3674,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3870,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3917,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3963,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4419,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4466,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4512,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4679,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4714,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4772,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4927,10 +4939,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4974,28 +4986,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5020,28 +5032,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5129,10 +5141,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5176,28 +5188,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5222,28 +5234,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5331,10 +5343,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5378,28 +5390,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5424,28 +5436,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5562,10 +5574,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5609,28 +5621,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5655,28 +5667,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5805,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5898,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6094,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6141,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6187,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6296,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6343,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6389,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6498,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6533,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6591,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
